--- a/2_Supplemental_Material/Section_4_Methodology/Metamodel_adaptations_of_the_selected_DSLs_in_the_1st_and_2nd_iteration.xlsx
+++ b/2_Supplemental_Material/Section_4_Methodology/Metamodel_adaptations_of_the_selected_DSLs_in_the_1st_and_2nd_iteration.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Git Repository\GrammarTransformer_data\2_Supplemental_Material\Section_4_Methodology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7162C-3C7E-49FE-824C-E4343808A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -143,21 +152,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
@@ -167,7 +181,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,20 +191,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -202,6 +208,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -210,6 +220,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -218,68 +233,74 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -469,29 +490,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="69.5"/>
-    <col customWidth="1" min="4" max="4" width="71.63"/>
-    <col customWidth="1" min="5" max="5" width="69.5"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="69.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.6328125" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,418 +532,418 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="62.5">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="62.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="37.5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="50">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="75">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:5" ht="25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" ht="112.5">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60">
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61">
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62">
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63">
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64">
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67">
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68">
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69">
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="3:4" ht="12.5">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="3:4" ht="12.5">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="3:4" ht="12.5">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="3:4" ht="12.5">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="3:4" ht="12.5">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="3:4" ht="12.5">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="3:4" ht="12.5">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="3:4" ht="12.5">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="3:4" ht="12.5">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="3:4" ht="12.5">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="3:4" ht="12.5">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="3:4" ht="12.5">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="3:4" ht="12.5">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -929,6 +953,6 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>